--- a/data/tabla_desagregada_mcp_merged.xlsx
+++ b/data/tabla_desagregada_mcp_merged.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,10 +485,10 @@
         <v>5840</v>
       </c>
       <c r="E2" t="n">
-        <v>210</v>
+        <v>370</v>
       </c>
       <c r="F2" t="n">
-        <v>3.595890410958904</v>
+        <v>6.335616438356165</v>
       </c>
     </row>
     <row r="3">
@@ -511,10 +511,10 @@
         <v>3000</v>
       </c>
       <c r="E3" t="n">
-        <v>96</v>
+        <v>248</v>
       </c>
       <c r="F3" t="n">
-        <v>3.2</v>
+        <v>8.266666666666666</v>
       </c>
     </row>
     <row r="4">
@@ -525,152 +525,152 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CRUZ PAMPA YAPATERA</t>
+          <t>CRUCETA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MORROPON</t>
+          <t>PIURA</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5000</v>
+        <v>4410</v>
       </c>
       <c r="E4" t="n">
-        <v>97</v>
+        <v>176</v>
       </c>
       <c r="F4" t="n">
-        <v>1.94</v>
+        <v>3.990929705215419</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>LA LIBERTAD</t>
+          <t>PIURA</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CURVA DE SUN</t>
+          <t>CRUZ PAMPA YAPATERA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TRUJILLO</t>
+          <t>MORROPON</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="E5" t="n">
-        <v>23</v>
+        <v>229</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2875</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CAJAMARCA</t>
+          <t>LA LIBERTAD</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HUAMBOCANCHA ALTA</t>
+          <t>CURVA DE SUN</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CAJAMARCA</t>
+          <t>TRUJILLO</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5894</v>
+        <v>8000</v>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>191</v>
       </c>
       <c r="F6" t="n">
-        <v>1.69664065151001</v>
+        <v>2.3875</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>LA LIBERTAD</t>
+          <t>CAJAMARCA</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HUANCHAQUITO</t>
+          <t>HUAMBOCANCHA ALTA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TRUJILLO</t>
+          <t>CAJAMARCA</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>7000</v>
+        <v>5894</v>
       </c>
       <c r="E7" t="n">
-        <v>48</v>
+        <v>287</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6857142857142857</v>
+        <v>4.86935866983373</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LAMBAYEQUE</t>
+          <t>LA LIBERTAD</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>LA COLORADA</t>
+          <t>HUANCHAQUITO</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LAMBAYEQUE</t>
+          <t>TRUJILLO</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="E8" t="n">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="F8" t="n">
-        <v>5.800000000000001</v>
+        <v>2.971428571428572</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PIURA</t>
+          <t>LAMBAYEQUE</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>LA PEÑITA</t>
+          <t>LA COLORADA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PIURA</t>
+          <t>LAMBAYEQUE</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5868</v>
+        <v>4000</v>
       </c>
       <c r="E9" t="n">
-        <v>132</v>
+        <v>429</v>
       </c>
       <c r="F9" t="n">
-        <v>2.249488752556237</v>
+        <v>10.725</v>
       </c>
     </row>
     <row r="10">
@@ -681,7 +681,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MALINGAS</t>
+          <t>LA PEÑITA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -690,39 +690,39 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5574</v>
+        <v>5868</v>
       </c>
       <c r="E10" t="n">
-        <v>126</v>
+        <v>246</v>
       </c>
       <c r="F10" t="n">
-        <v>2.260495156081809</v>
+        <v>4.192229038854806</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CAJAMARCA</t>
+          <t>PIURA</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>OTUZCO</t>
+          <t>MALINGAS</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CAJAMARCA</t>
+          <t>PIURA</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>6000</v>
+        <v>5574</v>
       </c>
       <c r="E11" t="n">
-        <v>51</v>
+        <v>350</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8500000000000001</v>
+        <v>6.279153211338357</v>
       </c>
     </row>
     <row r="12">
@@ -733,48 +733,48 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SAN ANTONIO BAJO</t>
+          <t>OTUZCO</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>HUALGAYOC</t>
+          <t>CAJAMARCA</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="E12" t="n">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="F12" t="n">
-        <v>1.22</v>
+        <v>2.483333333333333</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PIURA</t>
+          <t>CAJAMARCA</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LA VILLA LETIRA - BECARA</t>
+          <t>SAN ANTONIO BAJO</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>SECHURA</t>
+          <t>HUALGAYOC</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>6142</v>
+        <v>5000</v>
       </c>
       <c r="E13" t="n">
-        <v>558</v>
+        <v>181</v>
       </c>
       <c r="F13" t="n">
-        <v>9.084988603060893</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="14">
@@ -785,22 +785,48 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>LA VILLA LETIRA - BECARA</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>SECHURA</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>6142</v>
+      </c>
+      <c r="E14" t="n">
+        <v>860</v>
+      </c>
+      <c r="F14" t="n">
+        <v>14.0019537609899</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>PIURA</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>VIVIATE</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>PAITA</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D15" t="n">
         <v>5025</v>
       </c>
-      <c r="E14" t="n">
-        <v>321</v>
-      </c>
-      <c r="F14" t="n">
-        <v>6.388059701492538</v>
+      <c r="E15" t="n">
+        <v>537</v>
+      </c>
+      <c r="F15" t="n">
+        <v>10.6865671641791</v>
       </c>
     </row>
   </sheetData>

--- a/data/tabla_desagregada_mcp_merged.xlsx
+++ b/data/tabla_desagregada_mcp_merged.xlsx
@@ -485,10 +485,10 @@
         <v>5840</v>
       </c>
       <c r="E2" t="n">
-        <v>370</v>
+        <v>823</v>
       </c>
       <c r="F2" t="n">
-        <v>6.335616438356165</v>
+        <v>14.09246575342466</v>
       </c>
     </row>
     <row r="3">
@@ -511,10 +511,10 @@
         <v>3000</v>
       </c>
       <c r="E3" t="n">
-        <v>248</v>
+        <v>631</v>
       </c>
       <c r="F3" t="n">
-        <v>8.266666666666666</v>
+        <v>21.03333333333333</v>
       </c>
     </row>
     <row r="4">
@@ -537,10 +537,10 @@
         <v>4410</v>
       </c>
       <c r="E4" t="n">
-        <v>176</v>
+        <v>760</v>
       </c>
       <c r="F4" t="n">
-        <v>3.990929705215419</v>
+        <v>17.23356009070295</v>
       </c>
     </row>
     <row r="5">
@@ -563,10 +563,10 @@
         <v>5000</v>
       </c>
       <c r="E5" t="n">
-        <v>229</v>
+        <v>707</v>
       </c>
       <c r="F5" t="n">
-        <v>4.58</v>
+        <v>14.14</v>
       </c>
     </row>
     <row r="6">
@@ -589,10 +589,10 @@
         <v>8000</v>
       </c>
       <c r="E6" t="n">
-        <v>191</v>
+        <v>766</v>
       </c>
       <c r="F6" t="n">
-        <v>2.3875</v>
+        <v>9.574999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -615,10 +615,10 @@
         <v>5894</v>
       </c>
       <c r="E7" t="n">
-        <v>287</v>
+        <v>786</v>
       </c>
       <c r="F7" t="n">
-        <v>4.86935866983373</v>
+        <v>13.33559552086868</v>
       </c>
     </row>
     <row r="8">
@@ -641,10 +641,10 @@
         <v>7000</v>
       </c>
       <c r="E8" t="n">
-        <v>208</v>
+        <v>516</v>
       </c>
       <c r="F8" t="n">
-        <v>2.971428571428572</v>
+        <v>7.371428571428572</v>
       </c>
     </row>
     <row r="9">
@@ -667,10 +667,10 @@
         <v>4000</v>
       </c>
       <c r="E9" t="n">
-        <v>429</v>
+        <v>1046</v>
       </c>
       <c r="F9" t="n">
-        <v>10.725</v>
+        <v>26.15</v>
       </c>
     </row>
     <row r="10">
@@ -693,10 +693,10 @@
         <v>5868</v>
       </c>
       <c r="E10" t="n">
-        <v>246</v>
+        <v>693</v>
       </c>
       <c r="F10" t="n">
-        <v>4.192229038854806</v>
+        <v>11.80981595092025</v>
       </c>
     </row>
     <row r="11">
@@ -719,10 +719,10 @@
         <v>5574</v>
       </c>
       <c r="E11" t="n">
-        <v>350</v>
+        <v>1269</v>
       </c>
       <c r="F11" t="n">
-        <v>6.279153211338357</v>
+        <v>22.76641550053821</v>
       </c>
     </row>
     <row r="12">
@@ -745,10 +745,10 @@
         <v>6000</v>
       </c>
       <c r="E12" t="n">
-        <v>149</v>
+        <v>459</v>
       </c>
       <c r="F12" t="n">
-        <v>2.483333333333333</v>
+        <v>7.649999999999999</v>
       </c>
     </row>
     <row r="13">
@@ -771,10 +771,10 @@
         <v>5000</v>
       </c>
       <c r="E13" t="n">
-        <v>181</v>
+        <v>640</v>
       </c>
       <c r="F13" t="n">
-        <v>3.62</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="14">
@@ -797,10 +797,10 @@
         <v>6142</v>
       </c>
       <c r="E14" t="n">
-        <v>860</v>
+        <v>1680</v>
       </c>
       <c r="F14" t="n">
-        <v>14.0019537609899</v>
+        <v>27.35265385867795</v>
       </c>
     </row>
     <row r="15">
@@ -823,10 +823,10 @@
         <v>5025</v>
       </c>
       <c r="E15" t="n">
-        <v>537</v>
+        <v>1153</v>
       </c>
       <c r="F15" t="n">
-        <v>10.6865671641791</v>
+        <v>22.9452736318408</v>
       </c>
     </row>
   </sheetData>

--- a/data/tabla_desagregada_mcp_merged.xlsx
+++ b/data/tabla_desagregada_mcp_merged.xlsx
@@ -485,10 +485,10 @@
         <v>5840</v>
       </c>
       <c r="E2" t="n">
-        <v>823</v>
+        <v>947</v>
       </c>
       <c r="F2" t="n">
-        <v>14.09246575342466</v>
+        <v>16.21575342465754</v>
       </c>
     </row>
     <row r="3">
@@ -511,10 +511,10 @@
         <v>3000</v>
       </c>
       <c r="E3" t="n">
-        <v>631</v>
+        <v>763</v>
       </c>
       <c r="F3" t="n">
-        <v>21.03333333333333</v>
+        <v>25.43333333333334</v>
       </c>
     </row>
     <row r="4">
@@ -537,10 +537,10 @@
         <v>4410</v>
       </c>
       <c r="E4" t="n">
-        <v>760</v>
+        <v>942</v>
       </c>
       <c r="F4" t="n">
-        <v>17.23356009070295</v>
+        <v>21.36054421768707</v>
       </c>
     </row>
     <row r="5">
@@ -563,10 +563,10 @@
         <v>5000</v>
       </c>
       <c r="E5" t="n">
-        <v>707</v>
+        <v>872</v>
       </c>
       <c r="F5" t="n">
-        <v>14.14</v>
+        <v>17.44</v>
       </c>
     </row>
     <row r="6">
@@ -589,10 +589,10 @@
         <v>8000</v>
       </c>
       <c r="E6" t="n">
-        <v>766</v>
+        <v>928</v>
       </c>
       <c r="F6" t="n">
-        <v>9.574999999999999</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="7">
@@ -615,10 +615,10 @@
         <v>5894</v>
       </c>
       <c r="E7" t="n">
-        <v>786</v>
+        <v>952</v>
       </c>
       <c r="F7" t="n">
-        <v>13.33559552086868</v>
+        <v>16.1520190023753</v>
       </c>
     </row>
     <row r="8">
@@ -641,10 +641,10 @@
         <v>7000</v>
       </c>
       <c r="E8" t="n">
-        <v>516</v>
+        <v>662</v>
       </c>
       <c r="F8" t="n">
-        <v>7.371428571428572</v>
+        <v>9.457142857142857</v>
       </c>
     </row>
     <row r="9">
@@ -667,10 +667,10 @@
         <v>4000</v>
       </c>
       <c r="E9" t="n">
-        <v>1046</v>
+        <v>1209</v>
       </c>
       <c r="F9" t="n">
-        <v>26.15</v>
+        <v>30.225</v>
       </c>
     </row>
     <row r="10">
@@ -693,10 +693,10 @@
         <v>5868</v>
       </c>
       <c r="E10" t="n">
-        <v>693</v>
+        <v>791</v>
       </c>
       <c r="F10" t="n">
-        <v>11.80981595092025</v>
+        <v>13.47989093387866</v>
       </c>
     </row>
     <row r="11">
@@ -719,10 +719,10 @@
         <v>5574</v>
       </c>
       <c r="E11" t="n">
-        <v>1269</v>
+        <v>1430</v>
       </c>
       <c r="F11" t="n">
-        <v>22.76641550053821</v>
+        <v>25.65482597775386</v>
       </c>
     </row>
     <row r="12">
@@ -745,10 +745,10 @@
         <v>6000</v>
       </c>
       <c r="E12" t="n">
-        <v>459</v>
+        <v>607</v>
       </c>
       <c r="F12" t="n">
-        <v>7.649999999999999</v>
+        <v>10.11666666666667</v>
       </c>
     </row>
     <row r="13">
@@ -771,10 +771,10 @@
         <v>5000</v>
       </c>
       <c r="E13" t="n">
-        <v>640</v>
+        <v>869</v>
       </c>
       <c r="F13" t="n">
-        <v>12.8</v>
+        <v>17.38</v>
       </c>
     </row>
     <row r="14">
@@ -797,10 +797,10 @@
         <v>6142</v>
       </c>
       <c r="E14" t="n">
-        <v>1680</v>
+        <v>1945</v>
       </c>
       <c r="F14" t="n">
-        <v>27.35265385867795</v>
+        <v>31.66720937805275</v>
       </c>
     </row>
     <row r="15">
@@ -823,10 +823,10 @@
         <v>5025</v>
       </c>
       <c r="E15" t="n">
-        <v>1153</v>
+        <v>1308</v>
       </c>
       <c r="F15" t="n">
-        <v>22.9452736318408</v>
+        <v>26.02985074626866</v>
       </c>
     </row>
   </sheetData>

--- a/data/tabla_desagregada_mcp_merged.xlsx
+++ b/data/tabla_desagregada_mcp_merged.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,6 +461,11 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Monitor</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>PORC_AVANCE</t>
         </is>
       </c>
@@ -487,7 +492,12 @@
       <c r="E2" t="n">
         <v>947</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Ariadna Chavez</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
         <v>16.21575342465754</v>
       </c>
     </row>
@@ -513,7 +523,12 @@
       <c r="E3" t="n">
         <v>763</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Verioska Butron</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
         <v>25.43333333333334</v>
       </c>
     </row>
@@ -539,7 +554,12 @@
       <c r="E4" t="n">
         <v>942</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sofía Asto</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>21.36054421768707</v>
       </c>
     </row>
@@ -565,7 +585,12 @@
       <c r="E5" t="n">
         <v>872</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Alonso Chapoñan</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
         <v>17.44</v>
       </c>
     </row>
@@ -591,7 +616,12 @@
       <c r="E6" t="n">
         <v>928</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Valeria Palacios</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>11.6</v>
       </c>
     </row>
@@ -617,7 +647,12 @@
       <c r="E7" t="n">
         <v>952</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Ana Claudia Arana</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
         <v>16.1520190023753</v>
       </c>
     </row>
@@ -643,7 +678,12 @@
       <c r="E8" t="n">
         <v>662</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Ivanna Carrasco</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
         <v>9.457142857142857</v>
       </c>
     </row>
@@ -669,7 +709,12 @@
       <c r="E9" t="n">
         <v>1209</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Betsy Fidel</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
         <v>30.225</v>
       </c>
     </row>
@@ -695,7 +740,12 @@
       <c r="E10" t="n">
         <v>791</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Mary Arcos</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
         <v>13.47989093387866</v>
       </c>
     </row>
@@ -721,7 +771,12 @@
       <c r="E11" t="n">
         <v>1430</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carito Hernandez </t>
+        </is>
+      </c>
+      <c r="G11" t="n">
         <v>25.65482597775386</v>
       </c>
     </row>
@@ -747,7 +802,12 @@
       <c r="E12" t="n">
         <v>607</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Banesa Perez</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
         <v>10.11666666666667</v>
       </c>
     </row>
@@ -773,7 +833,12 @@
       <c r="E13" t="n">
         <v>869</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Luis García</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
         <v>17.38</v>
       </c>
     </row>
@@ -799,7 +864,12 @@
       <c r="E14" t="n">
         <v>1945</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Dorian Macha</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
         <v>31.66720937805275</v>
       </c>
     </row>
@@ -825,7 +895,12 @@
       <c r="E15" t="n">
         <v>1308</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Mia Espejo</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
         <v>26.02985074626866</v>
       </c>
     </row>

--- a/data/tabla_desagregada_mcp_merged.xlsx
+++ b/data/tabla_desagregada_mcp_merged.xlsx
@@ -490,7 +490,7 @@
         <v>5840</v>
       </c>
       <c r="E2" t="n">
-        <v>947</v>
+        <v>1106</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>16.21575342465754</v>
+        <v>18.93835616438356</v>
       </c>
     </row>
     <row r="3">
@@ -521,7 +521,7 @@
         <v>3000</v>
       </c>
       <c r="E3" t="n">
-        <v>763</v>
+        <v>838</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>25.43333333333334</v>
+        <v>27.93333333333333</v>
       </c>
     </row>
     <row r="4">
@@ -552,7 +552,7 @@
         <v>4410</v>
       </c>
       <c r="E4" t="n">
-        <v>942</v>
+        <v>986</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>21.36054421768707</v>
+        <v>22.35827664399093</v>
       </c>
     </row>
     <row r="5">
@@ -583,7 +583,7 @@
         <v>5000</v>
       </c>
       <c r="E5" t="n">
-        <v>872</v>
+        <v>1135</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>17.44</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="6">
@@ -614,7 +614,7 @@
         <v>8000</v>
       </c>
       <c r="E6" t="n">
-        <v>928</v>
+        <v>1032</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>11.6</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="7">
@@ -645,7 +645,7 @@
         <v>5894</v>
       </c>
       <c r="E7" t="n">
-        <v>952</v>
+        <v>1056</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -653,7 +653,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>16.1520190023753</v>
+        <v>17.91652527994571</v>
       </c>
     </row>
     <row r="8">
@@ -676,7 +676,7 @@
         <v>7000</v>
       </c>
       <c r="E8" t="n">
-        <v>662</v>
+        <v>799</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>9.457142857142857</v>
+        <v>11.41428571428571</v>
       </c>
     </row>
     <row r="9">
@@ -707,7 +707,7 @@
         <v>4000</v>
       </c>
       <c r="E9" t="n">
-        <v>1209</v>
+        <v>1292</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -715,7 +715,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>30.225</v>
+        <v>32.3</v>
       </c>
     </row>
     <row r="10">
@@ -738,7 +738,7 @@
         <v>5868</v>
       </c>
       <c r="E10" t="n">
-        <v>791</v>
+        <v>961</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>13.47989093387866</v>
+        <v>16.37695978186776</v>
       </c>
     </row>
     <row r="11">
@@ -769,7 +769,7 @@
         <v>5574</v>
       </c>
       <c r="E11" t="n">
-        <v>1430</v>
+        <v>1513</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>25.65482597775386</v>
+        <v>27.14388231072838</v>
       </c>
     </row>
     <row r="12">
@@ -800,7 +800,7 @@
         <v>6000</v>
       </c>
       <c r="E12" t="n">
-        <v>607</v>
+        <v>716</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>10.11666666666667</v>
+        <v>11.93333333333333</v>
       </c>
     </row>
     <row r="13">
@@ -831,7 +831,7 @@
         <v>5000</v>
       </c>
       <c r="E13" t="n">
-        <v>869</v>
+        <v>1061</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>17.38</v>
+        <v>21.22</v>
       </c>
     </row>
     <row r="14">
@@ -862,7 +862,7 @@
         <v>6142</v>
       </c>
       <c r="E14" t="n">
-        <v>1945</v>
+        <v>2066</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>31.66720937805275</v>
+        <v>33.63725170954087</v>
       </c>
     </row>
     <row r="15">
@@ -893,7 +893,7 @@
         <v>5025</v>
       </c>
       <c r="E15" t="n">
-        <v>1308</v>
+        <v>1480</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>26.02985074626866</v>
+        <v>29.45273631840796</v>
       </c>
     </row>
   </sheetData>

--- a/data/tabla_desagregada_mcp_merged.xlsx
+++ b/data/tabla_desagregada_mcp_merged.xlsx
@@ -490,7 +490,7 @@
         <v>5840</v>
       </c>
       <c r="E2" t="n">
-        <v>1106</v>
+        <v>1147</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>18.93835616438356</v>
+        <v>19.64041095890411</v>
       </c>
     </row>
     <row r="3">
@@ -521,7 +521,7 @@
         <v>3000</v>
       </c>
       <c r="E3" t="n">
-        <v>838</v>
+        <v>870</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>27.93333333333333</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
@@ -552,7 +552,7 @@
         <v>4410</v>
       </c>
       <c r="E4" t="n">
-        <v>986</v>
+        <v>1040</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>22.35827664399093</v>
+        <v>23.5827664399093</v>
       </c>
     </row>
     <row r="5">
@@ -614,7 +614,7 @@
         <v>8000</v>
       </c>
       <c r="E6" t="n">
-        <v>1032</v>
+        <v>1039</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>12.9</v>
+        <v>12.9875</v>
       </c>
     </row>
     <row r="7">
@@ -645,7 +645,7 @@
         <v>5894</v>
       </c>
       <c r="E7" t="n">
-        <v>1056</v>
+        <v>1091</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -653,7 +653,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>17.91652527994571</v>
+        <v>18.51034950797421</v>
       </c>
     </row>
     <row r="8">
@@ -676,7 +676,7 @@
         <v>7000</v>
       </c>
       <c r="E8" t="n">
-        <v>799</v>
+        <v>863</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>11.41428571428571</v>
+        <v>12.32857142857143</v>
       </c>
     </row>
     <row r="9">
@@ -707,7 +707,7 @@
         <v>4000</v>
       </c>
       <c r="E9" t="n">
-        <v>1292</v>
+        <v>1351</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -715,7 +715,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>32.3</v>
+        <v>33.775</v>
       </c>
     </row>
     <row r="10">
@@ -738,7 +738,7 @@
         <v>5868</v>
       </c>
       <c r="E10" t="n">
-        <v>961</v>
+        <v>1009</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>16.37695978186776</v>
+        <v>17.19495569188821</v>
       </c>
     </row>
     <row r="11">
@@ -769,7 +769,7 @@
         <v>5574</v>
       </c>
       <c r="E11" t="n">
-        <v>1513</v>
+        <v>1704</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>27.14388231072838</v>
+        <v>30.57050592034446</v>
       </c>
     </row>
     <row r="12">
@@ -800,7 +800,7 @@
         <v>6000</v>
       </c>
       <c r="E12" t="n">
-        <v>716</v>
+        <v>793</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>11.93333333333333</v>
+        <v>13.21666666666667</v>
       </c>
     </row>
     <row r="13">
@@ -862,7 +862,7 @@
         <v>6142</v>
       </c>
       <c r="E14" t="n">
-        <v>2066</v>
+        <v>2136</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>33.63725170954087</v>
+        <v>34.77694562031912</v>
       </c>
     </row>
     <row r="15">

--- a/data/tabla_desagregada_mcp_merged.xlsx
+++ b/data/tabla_desagregada_mcp_merged.xlsx
@@ -490,7 +490,7 @@
         <v>5840</v>
       </c>
       <c r="E2" t="n">
-        <v>1147</v>
+        <v>1321</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>19.64041095890411</v>
+        <v>22.61986301369863</v>
       </c>
     </row>
     <row r="3">
@@ -521,7 +521,7 @@
         <v>3000</v>
       </c>
       <c r="E3" t="n">
-        <v>870</v>
+        <v>996</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>29</v>
+        <v>33.2</v>
       </c>
     </row>
     <row r="4">
@@ -552,7 +552,7 @@
         <v>4410</v>
       </c>
       <c r="E4" t="n">
-        <v>1040</v>
+        <v>1148</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>23.5827664399093</v>
+        <v>26.03174603174604</v>
       </c>
     </row>
     <row r="5">
@@ -583,7 +583,7 @@
         <v>5000</v>
       </c>
       <c r="E5" t="n">
-        <v>1135</v>
+        <v>1235</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>22.7</v>
+        <v>24.7</v>
       </c>
     </row>
     <row r="6">
@@ -614,7 +614,7 @@
         <v>8000</v>
       </c>
       <c r="E6" t="n">
-        <v>1039</v>
+        <v>1105</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>12.9875</v>
+        <v>13.8125</v>
       </c>
     </row>
     <row r="7">
@@ -645,7 +645,7 @@
         <v>5894</v>
       </c>
       <c r="E7" t="n">
-        <v>1091</v>
+        <v>1210</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -653,7 +653,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>18.51034950797421</v>
+        <v>20.52935188327113</v>
       </c>
     </row>
     <row r="8">
@@ -676,7 +676,7 @@
         <v>7000</v>
       </c>
       <c r="E8" t="n">
-        <v>863</v>
+        <v>1023</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>12.32857142857143</v>
+        <v>14.61428571428571</v>
       </c>
     </row>
     <row r="9">
@@ -707,7 +707,7 @@
         <v>4000</v>
       </c>
       <c r="E9" t="n">
-        <v>1351</v>
+        <v>1425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -715,7 +715,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>33.775</v>
+        <v>35.625</v>
       </c>
     </row>
     <row r="10">
@@ -738,7 +738,7 @@
         <v>5868</v>
       </c>
       <c r="E10" t="n">
-        <v>1009</v>
+        <v>1167</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>17.19495569188821</v>
+        <v>19.88752556237219</v>
       </c>
     </row>
     <row r="11">
@@ -769,7 +769,7 @@
         <v>5574</v>
       </c>
       <c r="E11" t="n">
-        <v>1704</v>
+        <v>2036</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>30.57050592034446</v>
+        <v>36.52673125224256</v>
       </c>
     </row>
     <row r="12">
@@ -800,7 +800,7 @@
         <v>6000</v>
       </c>
       <c r="E12" t="n">
-        <v>793</v>
+        <v>891</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>13.21666666666667</v>
+        <v>14.85</v>
       </c>
     </row>
     <row r="13">
@@ -831,7 +831,7 @@
         <v>5000</v>
       </c>
       <c r="E13" t="n">
-        <v>1061</v>
+        <v>1276</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>21.22</v>
+        <v>25.52</v>
       </c>
     </row>
     <row r="14">
@@ -862,7 +862,7 @@
         <v>6142</v>
       </c>
       <c r="E14" t="n">
-        <v>2136</v>
+        <v>2375</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>34.77694562031912</v>
+        <v>38.66818625854771</v>
       </c>
     </row>
     <row r="15">
@@ -893,7 +893,7 @@
         <v>5025</v>
       </c>
       <c r="E15" t="n">
-        <v>1480</v>
+        <v>1684</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>29.45273631840796</v>
+        <v>33.51243781094527</v>
       </c>
     </row>
   </sheetData>

--- a/data/tabla_desagregada_mcp_merged.xlsx
+++ b/data/tabla_desagregada_mcp_merged.xlsx
@@ -490,7 +490,7 @@
         <v>5840</v>
       </c>
       <c r="E2" t="n">
-        <v>1321</v>
+        <v>1525</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>22.61986301369863</v>
+        <v>26.11301369863014</v>
       </c>
     </row>
     <row r="3">
@@ -521,7 +521,7 @@
         <v>3000</v>
       </c>
       <c r="E3" t="n">
-        <v>996</v>
+        <v>1105</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>33.2</v>
+        <v>36.83333333333334</v>
       </c>
     </row>
     <row r="4">
@@ -552,7 +552,7 @@
         <v>4410</v>
       </c>
       <c r="E4" t="n">
-        <v>1148</v>
+        <v>1199</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>26.03174603174604</v>
+        <v>27.18820861678005</v>
       </c>
     </row>
     <row r="5">
@@ -583,7 +583,7 @@
         <v>5000</v>
       </c>
       <c r="E5" t="n">
-        <v>1235</v>
+        <v>1371</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>24.7</v>
+        <v>27.42</v>
       </c>
     </row>
     <row r="6">
@@ -614,7 +614,7 @@
         <v>8000</v>
       </c>
       <c r="E6" t="n">
-        <v>1105</v>
+        <v>1164</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>13.8125</v>
+        <v>14.55</v>
       </c>
     </row>
     <row r="7">
@@ -645,7 +645,7 @@
         <v>5894</v>
       </c>
       <c r="E7" t="n">
-        <v>1210</v>
+        <v>1327</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -653,7 +653,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>20.52935188327113</v>
+        <v>22.51442144553783</v>
       </c>
     </row>
     <row r="8">
@@ -676,7 +676,7 @@
         <v>7000</v>
       </c>
       <c r="E8" t="n">
-        <v>1023</v>
+        <v>1195</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>14.61428571428571</v>
+        <v>17.07142857142857</v>
       </c>
     </row>
     <row r="9">
@@ -707,7 +707,7 @@
         <v>4000</v>
       </c>
       <c r="E9" t="n">
-        <v>1425</v>
+        <v>1495</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -715,7 +715,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>35.625</v>
+        <v>37.375</v>
       </c>
     </row>
     <row r="10">
@@ -738,7 +738,7 @@
         <v>5868</v>
       </c>
       <c r="E10" t="n">
-        <v>1167</v>
+        <v>1255</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>19.88752556237219</v>
+        <v>21.38718473074302</v>
       </c>
     </row>
     <row r="11">
@@ -769,7 +769,7 @@
         <v>5574</v>
       </c>
       <c r="E11" t="n">
-        <v>2036</v>
+        <v>2400</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>36.52673125224256</v>
+        <v>43.05705059203444</v>
       </c>
     </row>
     <row r="12">
@@ -800,7 +800,7 @@
         <v>6000</v>
       </c>
       <c r="E12" t="n">
-        <v>891</v>
+        <v>963</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>14.85</v>
+        <v>16.05</v>
       </c>
     </row>
     <row r="13">
@@ -831,7 +831,7 @@
         <v>5000</v>
       </c>
       <c r="E13" t="n">
-        <v>1276</v>
+        <v>1425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>25.52</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="14">
@@ -862,7 +862,7 @@
         <v>6142</v>
       </c>
       <c r="E14" t="n">
-        <v>2375</v>
+        <v>2497</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>38.66818625854771</v>
+        <v>40.65450993161836</v>
       </c>
     </row>
     <row r="15">
@@ -893,7 +893,7 @@
         <v>5025</v>
       </c>
       <c r="E15" t="n">
-        <v>1684</v>
+        <v>1972</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>33.51243781094527</v>
+        <v>39.24378109452736</v>
       </c>
     </row>
   </sheetData>
